--- a/timbot/experiments/IR sensor testing/data.xlsx
+++ b/timbot/experiments/IR sensor testing/data.xlsx
@@ -16,21 +16,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>distance (cm) +- 2mm</t>
   </si>
   <si>
-    <t>value +- 3</t>
+    <t>IR sensor #1</t>
+  </si>
+  <si>
+    <t>value +- 2</t>
+  </si>
+  <si>
+    <t>duplicate data, this is what we might be able to narrow it down to mechanically</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -57,8 +71,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -101,7 +116,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$B$17</c:f>
+              <c:f>Sheet1!$B$4:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>usable</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$8:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -146,7 +286,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$C$17</c:f>
+              <c:f>Sheet1!$E$8:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -255,16 +395,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -573,157 +713,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C17"/>
+  <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>205</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>450</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>20</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>469</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>30</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>381</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>40</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>322</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>50</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>299</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>60</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>295</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>70</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>295</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="D11">
+        <v>70</v>
+      </c>
+      <c r="E11">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>80</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>319</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="D12">
+        <v>80</v>
+      </c>
+      <c r="E12">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>90</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>336</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="D13">
+        <v>90</v>
+      </c>
+      <c r="E13">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>100</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>350</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>110</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>361</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="D15">
+        <v>110</v>
+      </c>
+      <c r="E15">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>120</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>367</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="D16">
+        <v>120</v>
+      </c>
+      <c r="E16">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>130</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>370</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="D17">
+        <v>130</v>
+      </c>
+      <c r="E17">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>140</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>396</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="D18">
+        <v>140</v>
+      </c>
+      <c r="E18">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>150</v>
       </c>
-      <c r="C17">
+      <c r="C19">
+        <v>411</v>
+      </c>
+      <c r="D19">
+        <v>150</v>
+      </c>
+      <c r="E19">
         <v>411</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
